--- a/data/diabetic_data_dictionaries.xlsx
+++ b/data/diabetic_data_dictionaries.xlsx
@@ -11,25 +11,22 @@
     <sheet name="gender" sheetId="2" r:id="rId2"/>
     <sheet name="age" sheetId="3" r:id="rId3"/>
     <sheet name="weight" sheetId="4" r:id="rId4"/>
-    <sheet name="admission_type_id" sheetId="5" r:id="rId5"/>
-    <sheet name="discharge_disposition_id" sheetId="6" r:id="rId6"/>
-    <sheet name="admission_source_id" sheetId="7" r:id="rId7"/>
-    <sheet name="payer_code" sheetId="8" r:id="rId8"/>
-    <sheet name="medical_specialty" sheetId="9" r:id="rId9"/>
-    <sheet name="max_glu_serum" sheetId="10" r:id="rId10"/>
-    <sheet name="A1Cresult" sheetId="11" r:id="rId11"/>
-    <sheet name="metformin" sheetId="12" r:id="rId12"/>
-    <sheet name="insulin" sheetId="13" r:id="rId13"/>
-    <sheet name="change" sheetId="14" r:id="rId14"/>
-    <sheet name="diabetesMed" sheetId="15" r:id="rId15"/>
-    <sheet name="readmitted" sheetId="16" r:id="rId16"/>
+    <sheet name="payer_code" sheetId="5" r:id="rId5"/>
+    <sheet name="medical_specialty" sheetId="6" r:id="rId6"/>
+    <sheet name="max_glu_serum" sheetId="7" r:id="rId7"/>
+    <sheet name="A1Cresult" sheetId="8" r:id="rId8"/>
+    <sheet name="metformin" sheetId="9" r:id="rId9"/>
+    <sheet name="insulin" sheetId="10" r:id="rId10"/>
+    <sheet name="change" sheetId="11" r:id="rId11"/>
+    <sheet name="diabetesMed" sheetId="12" r:id="rId12"/>
+    <sheet name="readmitted" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>Caucasian</t>
   </si>
@@ -113,147 +110,6 @@
   </si>
   <si>
     <t>&gt;200</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>Elective</t>
-  </si>
-  <si>
-    <t>Newborn</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>Not Mapped</t>
-  </si>
-  <si>
-    <t>Trauma Center</t>
-  </si>
-  <si>
-    <t>Discharged to home</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to SNF</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to home with home health service</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to another short term hospital</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to another type of inpatient care institution</t>
-  </si>
-  <si>
-    <t>Expired</t>
-  </si>
-  <si>
-    <t>Left AMA</t>
-  </si>
-  <si>
-    <t>Neonate discharged to another hospital for neonatal aftercare</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to ICF</t>
-  </si>
-  <si>
-    <t>Hospice / medical facility</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to home under care of Home IV provider</t>
-  </si>
-  <si>
-    <t>Hospice / home</t>
-  </si>
-  <si>
-    <t>Still patient or expected to return for outpatient services</t>
-  </si>
-  <si>
-    <t>Discharged/transferred/referred another institution for outpatient services</t>
-  </si>
-  <si>
-    <t>Discharged/transferred/referred to this institution for outpatient services</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to another rehab fac including rehab units of a hospital .</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to a long term care hospital.</t>
-  </si>
-  <si>
-    <t>Admitted as an inpatient to this hospital</t>
-  </si>
-  <si>
-    <t>Expired in a medical facility. Medicaid only, hospice.</t>
-  </si>
-  <si>
-    <t>Discharged/transferred within this institution to Medicare approved swing bed</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to a nursing facility certified under Medicaid but not certified under Medicare.</t>
-  </si>
-  <si>
-    <t>Discharged/transferred/referred to a psychiatric hospital of psychiatric distinct part unit of a hospital</t>
-  </si>
-  <si>
-    <t>Expired at home. Medicaid only, hospice.</t>
-  </si>
-  <si>
-    <t>Discharged/transferred to a federal health care facility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Physician Referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Emergency Room</t>
-  </si>
-  <si>
-    <t>Clinic Referral</t>
-  </si>
-  <si>
-    <t>Transfer from a hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transfer from a Skilled Nursing Facility (SNF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transfer from another health care facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not Mapped</t>
-  </si>
-  <si>
-    <t>HMO Referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Court/Law Enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Extramural Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transfer from critial access hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transfer from hospital inpt/same fac reslt in a sep claim</t>
-  </si>
-  <si>
-    <t>Normal Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transfer from Ambulatory Surgery Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sick Baby</t>
   </si>
   <si>
     <t>MC</t>
@@ -999,7 +855,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1007,7 +863,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1015,7 +871,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1023,7 +879,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1035,156 +891,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1199,7 +905,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1207,7 +913,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1218,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1233,7 +939,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1241,7 +947,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1252,7 +958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1267,7 +973,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1275,7 +981,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1283,7 +989,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1534,462 +1240,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2011,7 +1261,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2019,7 +1269,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2027,7 +1277,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2035,7 +1285,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2043,7 +1293,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2051,7 +1301,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2059,7 +1309,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2067,7 +1317,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2075,7 +1325,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2083,7 +1333,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2091,7 +1341,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2099,7 +1349,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2107,7 +1357,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -2115,7 +1365,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2123,7 +1373,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -2131,7 +1381,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -2139,7 +1389,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2150,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -2165,7 +1415,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2181,7 +1431,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2189,7 +1439,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2197,7 +1447,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2205,7 +1455,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2213,7 +1463,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2221,7 +1471,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2229,7 +1479,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2237,7 +1487,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2245,7 +1495,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2253,7 +1503,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2261,7 +1511,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2269,7 +1519,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -2277,7 +1527,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2285,7 +1535,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -2293,7 +1543,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -2301,7 +1551,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2309,7 +1559,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2317,7 +1567,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -2325,7 +1575,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2333,7 +1583,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2341,7 +1591,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -2349,7 +1599,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2357,7 +1607,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2365,7 +1615,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2373,7 +1623,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -2381,7 +1631,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2389,7 +1639,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -2397,7 +1647,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -2405,7 +1655,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2413,7 +1663,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -2421,7 +1671,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -2429,7 +1679,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -2437,7 +1687,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -2445,7 +1695,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -2453,7 +1703,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -2461,7 +1711,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -2469,7 +1719,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -2477,7 +1727,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -2485,7 +1735,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2493,7 +1743,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -2501,7 +1751,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -2509,7 +1759,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -2517,7 +1767,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -2525,7 +1775,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -2533,7 +1783,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -2541,7 +1791,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -2549,7 +1799,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -2557,7 +1807,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -2565,7 +1815,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2573,7 +1823,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -2581,7 +1831,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -2589,7 +1839,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -2597,7 +1847,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -2605,7 +1855,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -2613,7 +1863,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -2621,7 +1871,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -2629,7 +1879,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -2637,7 +1887,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -2645,7 +1895,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -2653,7 +1903,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -2661,7 +1911,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -2669,7 +1919,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -2677,7 +1927,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -2685,7 +1935,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -2693,7 +1943,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -2701,7 +1951,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -2709,7 +1959,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B70">
         <v>68</v>
@@ -2717,7 +1967,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -2725,7 +1975,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -2733,7 +1983,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -2741,10 +1991,160 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B74">
         <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/diabetic_data_dictionaries.xlsx
+++ b/data/diabetic_data_dictionaries.xlsx
@@ -4684,7 +4684,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ch</t>
+          <t>change</t>
         </is>
       </c>
       <c r="B2" t="n">
